--- a/Uloha8/uloha8.xlsx
+++ b/Uloha8/uloha8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-NKZT/BPC-NKZT-Protokoly-2024/Uloha8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{19F374D0-DAD8-4397-8335-26DF7D52C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BE537D-B777-40BC-82FE-85DA82D37EE4}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{19F374D0-DAD8-4397-8335-26DF7D52C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1032A173-C82A-4ED1-923B-C5456FF466B5}"/>
   <bookViews>
     <workbookView xWindow="30624" yWindow="0" windowWidth="15480" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>I_vcc [Amp]</t>
   </si>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +108,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3030,6 +3033,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3293,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:L38"/>
+  <dimension ref="B4:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3305,23 +3312,23 @@
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>10000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>20000</v>
       </c>
       <c r="H4" t="s">
@@ -3333,9 +3340,15 @@
       <c r="K4" t="s">
         <v>4</v>
       </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -3353,7 +3366,7 @@
       <c r="G5" s="1">
         <v>0.8</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J5" t="s">
@@ -3362,9 +3375,15 @@
       <c r="K5" t="s">
         <v>5</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -3382,7 +3401,7 @@
       <c r="G6" s="1">
         <v>1.05</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="J6" t="s">
@@ -3391,9 +3410,15 @@
       <c r="K6" t="s">
         <v>7</v>
       </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -3411,12 +3436,18 @@
       <c r="G7" s="1">
         <v>1.36</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>2.4E-2</v>
       </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.4E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="1">
@@ -3434,12 +3465,18 @@
       <c r="G8" s="1">
         <v>1.83</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.03</v>
       </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="1">
@@ -3457,12 +3494,18 @@
       <c r="G9" s="1">
         <v>2.41</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -3480,12 +3523,18 @@
       <c r="G10" s="1">
         <v>3.24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" s="1">
@@ -3503,15 +3552,21 @@
       <c r="G11" s="1">
         <v>4.49</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" s="1">
@@ -3529,12 +3584,18 @@
       <c r="G12" s="1">
         <v>6.19</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" s="1">
@@ -3552,12 +3613,18 @@
       <c r="G13" s="1">
         <v>8.67</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0.06</v>
       </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" s="1">
@@ -3575,7 +3642,13 @@
       <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -3583,39 +3656,39 @@
       <c r="B33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>6</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <v>9</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34">
         <v>20</v>
       </c>
       <c r="C34" s="1">
@@ -3650,7 +3723,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
+      <c r="B35">
         <v>100</v>
       </c>
       <c r="C35" s="1">
@@ -3685,7 +3758,7 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
+      <c r="B36">
         <v>1000</v>
       </c>
       <c r="C36" s="1">
@@ -3720,7 +3793,7 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="B37">
         <v>10000</v>
       </c>
       <c r="C37" s="1">
@@ -3755,7 +3828,7 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
+      <c r="B38">
         <v>20000</v>
       </c>
       <c r="C38" s="1">
